--- a/Jogos_da_Semana_FlashScore_2024-09-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-29.xlsx
@@ -947,10 +947,10 @@
         <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
         <v>2.75</v>
@@ -1687,10 +1687,10 @@
         <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
         <v>1.3</v>
@@ -1699,13 +1699,13 @@
         <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
@@ -1714,13 +1714,13 @@
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
         <v>15</v>
@@ -1738,10 +1738,10 @@
         <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>9</v>
@@ -1750,16 +1750,16 @@
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
         <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
@@ -1783,19 +1783,19 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX7" t="n">
         <v>4.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ7" t="n">
         <v>19</v>
       </c>
       <c r="BA7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB7" t="n">
         <v>51</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.3</v>
       </c>
       <c r="I13" t="n">
         <v>2.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2773,10 +2773,10 @@
         <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q13" t="n">
         <v>2.1</v>
@@ -2791,13 +2791,13 @@
         <v>2.63</v>
       </c>
       <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.95</v>
       </c>
-      <c r="V13" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X13" t="n">
         <v>15</v>
@@ -2809,16 +2809,16 @@
         <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
@@ -2827,16 +2827,16 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI13" t="n">
         <v>10</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
         <v>21</v>
@@ -2845,7 +2845,7 @@
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN13" t="n">
         <v>5</v>
@@ -2857,19 +2857,19 @@
         <v>29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT13" t="n">
         <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
@@ -2878,10 +2878,10 @@
         <v>126</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ13" t="n">
         <v>23</v>
@@ -2893,7 +2893,7 @@
         <v>67</v>
       </c>
       <c r="BC13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H14" t="n">
         <v>5.25</v>
@@ -2940,13 +2940,13 @@
         <v>9.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K14" t="n">
         <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2955,10 +2955,10 @@
         <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
         <v>1.73</v>
@@ -2988,13 +2988,13 @@
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
         <v>12</v>
@@ -3003,7 +3003,7 @@
         <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF14" t="n">
         <v>81</v>
@@ -3069,16 +3069,16 @@
         <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC14" t="n">
         <v>401</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -3883,13 +3883,13 @@
         <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
         <v>8</v>
@@ -3904,10 +3904,10 @@
         <v>12</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
         <v>8</v>
@@ -3916,7 +3916,7 @@
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
         <v>201</v>
@@ -3940,10 +3940,10 @@
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP19" t="n">
         <v>17</v>
@@ -3973,13 +3973,13 @@
         <v>7</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
         <v>29</v>
       </c>
       <c r="BA19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB19" t="n">
         <v>101</v>
@@ -4387,46 +4387,46 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
         <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L22" t="n">
         <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R22" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
         <v>2</v>
@@ -4438,7 +4438,7 @@
         <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y22" t="n">
         <v>8.5</v>
@@ -4456,7 +4456,7 @@
         <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>19</v>
@@ -4468,7 +4468,7 @@
         <v>401</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>34</v>
@@ -4477,7 +4477,7 @@
         <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="n">
         <v>51</v>
@@ -4492,19 +4492,19 @@
         <v>7.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="n">
         <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS22" t="n">
         <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
         <v>9</v>
@@ -4516,7 +4516,7 @@
         <v>126</v>
       </c>
       <c r="AX22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY22" t="n">
         <v>34</v>
@@ -4525,13 +4525,13 @@
         <v>41</v>
       </c>
       <c r="BA22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB22" t="n">
         <v>151</v>
       </c>
       <c r="BC22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD22" t="n">
         <v>151</v>
@@ -4569,28 +4569,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.3</v>
@@ -4599,10 +4599,10 @@
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4611,31 +4611,31 @@
         <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
         <v>6</v>
@@ -4653,13 +4653,13 @@
         <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
         <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4689,7 +4689,7 @@
         <v>2.75</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
@@ -4698,16 +4698,16 @@
         <v>501</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ23" t="n">
         <v>23</v>
       </c>
       <c r="BA23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB23" t="n">
         <v>67</v>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>3.5</v>
@@ -5855,46 +5855,46 @@
         <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V30" t="n">
         <v>2.1</v>
       </c>
-      <c r="S30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -5909,13 +5909,13 @@
         <v>23</v>
       </c>
       <c r="AC30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD30" t="n">
         <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
         <v>41</v>
@@ -5924,7 +5924,7 @@
         <v>151</v>
       </c>
       <c r="AH30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI30" t="n">
         <v>17</v>
@@ -5942,13 +5942,13 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO30" t="n">
         <v>12</v>
       </c>
       <c r="AP30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ30" t="n">
         <v>41</v>
@@ -5960,25 +5960,25 @@
         <v>126</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU30" t="n">
         <v>7.5</v>
       </c>
       <c r="AV30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA30" t="n">
         <v>51</v>
@@ -5987,7 +5987,7 @@
         <v>67</v>
       </c>
       <c r="BC30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD30" t="n">
         <v>151</v>
@@ -6577,34 +6577,34 @@
         <v>5.5</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" t="n">
         <v>1.67</v>
       </c>
       <c r="K34" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R34" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S34" t="n">
         <v>1.29</v>
@@ -6613,19 +6613,19 @@
         <v>3.5</v>
       </c>
       <c r="U34" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
         <v>7.5</v>
@@ -6637,7 +6637,7 @@
         <v>29</v>
       </c>
       <c r="AC34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD34" t="n">
         <v>11</v>
@@ -6652,7 +6652,7 @@
         <v>351</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
         <v>51</v>
@@ -6670,13 +6670,13 @@
         <v>67</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO34" t="n">
         <v>5.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ34" t="n">
         <v>15</v>
@@ -6694,25 +6694,25 @@
         <v>10</v>
       </c>
       <c r="AV34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW34" t="n">
         <v>51</v>
       </c>
       <c r="AX34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ34" t="n">
         <v>41</v>
       </c>
       <c r="BA34" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB34" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC34" t="n">
         <v>351</v>
@@ -6753,55 +6753,55 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J35" t="n">
         <v>3.5</v>
       </c>
       <c r="K35" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L35" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P35" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R35" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S35" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T35" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W35" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X35" t="n">
         <v>12</v>
@@ -6810,7 +6810,7 @@
         <v>11</v>
       </c>
       <c r="Z35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA35" t="n">
         <v>26</v>
@@ -6819,13 +6819,13 @@
         <v>41</v>
       </c>
       <c r="AC35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD35" t="n">
         <v>6</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="n">
         <v>67</v>
@@ -6843,16 +6843,16 @@
         <v>11</v>
       </c>
       <c r="AK35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL35" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM35" t="n">
         <v>41</v>
       </c>
       <c r="AN35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO35" t="n">
         <v>17</v>
@@ -6864,16 +6864,16 @@
         <v>51</v>
       </c>
       <c r="AR35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS35" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV35" t="n">
         <v>67</v>
@@ -6882,22 +6882,22 @@
         <v>81</v>
       </c>
       <c r="AX35" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA35" t="n">
         <v>51</v>
       </c>
       <c r="BB35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC35" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD35" t="n">
         <v>81</v>
@@ -6935,28 +6935,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H36" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O36" t="n">
         <v>1.5</v>
@@ -6965,34 +6965,34 @@
         <v>2.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T36" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U36" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y36" t="n">
         <v>10</v>
       </c>
       <c r="Z36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA36" t="n">
         <v>23</v>
@@ -7001,37 +7001,37 @@
         <v>41</v>
       </c>
       <c r="AC36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD36" t="n">
         <v>6</v>
       </c>
-      <c r="AD36" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AE36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF36" t="n">
         <v>67</v>
       </c>
       <c r="AG36" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="n">
         <v>4.33</v>
@@ -7049,25 +7049,25 @@
         <v>81</v>
       </c>
       <c r="AS36" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW36" t="n">
         <v>81</v>
       </c>
       <c r="AX36" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ36" t="n">
         <v>34</v>
@@ -7076,10 +7076,10 @@
         <v>67</v>
       </c>
       <c r="BB36" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC36" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD36" t="n">
         <v>81</v>
@@ -7845,28 +7845,28 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J41" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.6</v>
       </c>
       <c r="K41" t="n">
         <v>2.25</v>
       </c>
       <c r="L41" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O41" t="n">
         <v>1.22</v>
@@ -7893,13 +7893,13 @@
         <v>2.2</v>
       </c>
       <c r="W41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X41" t="n">
         <v>17</v>
       </c>
       <c r="Y41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z41" t="n">
         <v>34</v>
@@ -7917,7 +7917,7 @@
         <v>6.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF41" t="n">
         <v>41</v>
@@ -7926,10 +7926,10 @@
         <v>151</v>
       </c>
       <c r="AH41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ41" t="n">
         <v>9</v>
@@ -7944,7 +7944,7 @@
         <v>23</v>
       </c>
       <c r="AN41" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO41" t="n">
         <v>17</v>
@@ -7974,13 +7974,13 @@
         <v>126</v>
       </c>
       <c r="AX41" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA41" t="n">
         <v>41</v>
@@ -8027,13 +8027,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H42" t="n">
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="J42" t="n">
         <v>4</v>
@@ -8042,7 +8042,7 @@
         <v>2.38</v>
       </c>
       <c r="L42" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
@@ -8051,16 +8051,16 @@
         <v>15</v>
       </c>
       <c r="O42" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P42" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S42" t="n">
         <v>1.3</v>
@@ -8069,10 +8069,10 @@
         <v>3.4</v>
       </c>
       <c r="U42" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W42" t="n">
         <v>13</v>
@@ -8081,7 +8081,7 @@
         <v>21</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z42" t="n">
         <v>41</v>
@@ -8129,7 +8129,7 @@
         <v>6</v>
       </c>
       <c r="AO42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP42" t="n">
         <v>23</v>
@@ -8141,7 +8141,7 @@
         <v>67</v>
       </c>
       <c r="AS42" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT42" t="n">
         <v>3.4</v>
@@ -8156,10 +8156,10 @@
         <v>126</v>
       </c>
       <c r="AX42" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AZ42" t="n">
         <v>17</v>
@@ -8209,22 +8209,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H43" t="n">
         <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K43" t="n">
         <v>2.25</v>
       </c>
       <c r="L43" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8314,7 +8314,7 @@
         <v>12</v>
       </c>
       <c r="AP43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ43" t="n">
         <v>41</v>
@@ -8338,7 +8338,7 @@
         <v>126</v>
       </c>
       <c r="AX43" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY43" t="n">
         <v>17</v>
@@ -8937,19 +8937,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J47" t="n">
         <v>1.95</v>
       </c>
       <c r="K47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L47" t="n">
         <v>8.5</v>
@@ -8961,16 +8961,16 @@
         <v>8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R47" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S47" t="n">
         <v>1.44</v>
@@ -8985,13 +8985,13 @@
         <v>1.5</v>
       </c>
       <c r="W47" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X47" t="n">
         <v>5.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z47" t="n">
         <v>8.5</v>
@@ -9024,13 +9024,13 @@
         <v>41</v>
       </c>
       <c r="AJ47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK47" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL47" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM47" t="n">
         <v>81</v>
@@ -9051,7 +9051,7 @@
         <v>51</v>
       </c>
       <c r="AS47" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT47" t="n">
         <v>2.63</v>
@@ -9078,7 +9078,7 @@
         <v>251</v>
       </c>
       <c r="BB47" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC47" t="n">
         <v>501</v>
@@ -9119,28 +9119,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="J48" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K48" t="n">
         <v>1.95</v>
       </c>
       <c r="L48" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M48" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -9161,28 +9161,28 @@
         <v>2.25</v>
       </c>
       <c r="U48" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V48" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X48" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z48" t="n">
         <v>41</v>
       </c>
       <c r="AA48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC48" t="n">
         <v>6.5</v>
@@ -9200,16 +9200,16 @@
         <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI48" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL48" t="n">
         <v>21</v>
@@ -9218,19 +9218,19 @@
         <v>41</v>
       </c>
       <c r="AN48" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ48" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR48" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS48" t="n">
         <v>351</v>
@@ -9251,7 +9251,7 @@
         <v>4</v>
       </c>
       <c r="AY48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ48" t="n">
         <v>29</v>
@@ -9301,13 +9301,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J49" t="n">
         <v>2.88</v>
@@ -9319,10 +9319,10 @@
         <v>4.75</v>
       </c>
       <c r="M49" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O49" t="n">
         <v>1.5</v>
@@ -9483,28 +9483,28 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="K50" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O50" t="n">
         <v>1.5</v>
@@ -9513,10 +9513,10 @@
         <v>2.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R50" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S50" t="n">
         <v>1.57</v>
@@ -9525,37 +9525,37 @@
         <v>2.25</v>
       </c>
       <c r="U50" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V50" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W50" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y50" t="n">
         <v>9.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB50" t="n">
         <v>41</v>
       </c>
       <c r="AC50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF50" t="n">
         <v>101</v>
@@ -9564,34 +9564,34 @@
         <v>201</v>
       </c>
       <c r="AH50" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI50" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK50" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL50" t="n">
         <v>51</v>
       </c>
       <c r="AM50" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ50" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR50" t="n">
         <v>67</v>
@@ -9612,19 +9612,19 @@
         <v>126</v>
       </c>
       <c r="AX50" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AY50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ50" t="n">
         <v>41</v>
       </c>
       <c r="BA50" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB50" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC50" t="n">
         <v>501</v>
@@ -10029,46 +10029,46 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I53" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K53" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R53" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S53" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T53" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U53" t="n">
         <v>1.95</v>
@@ -10077,7 +10077,7 @@
         <v>1.8</v>
       </c>
       <c r="W53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X53" t="n">
         <v>41</v>
@@ -10089,37 +10089,37 @@
         <v>101</v>
       </c>
       <c r="AA53" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB53" t="n">
         <v>51</v>
       </c>
       <c r="AC53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE53" t="n">
         <v>21</v>
       </c>
       <c r="AF53" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG53" t="n">
         <v>351</v>
       </c>
       <c r="AH53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI53" t="n">
         <v>6.5</v>
       </c>
       <c r="AJ53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL53" t="n">
         <v>11</v>
@@ -10128,7 +10128,7 @@
         <v>26</v>
       </c>
       <c r="AN53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO53" t="n">
         <v>41</v>
@@ -10146,7 +10146,7 @@
         <v>301</v>
       </c>
       <c r="AT53" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU53" t="n">
         <v>9</v>
@@ -10167,7 +10167,7 @@
         <v>17</v>
       </c>
       <c r="BA53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB53" t="n">
         <v>41</v>
@@ -10766,10 +10766,10 @@
         <v>1.33</v>
       </c>
       <c r="J57" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K57" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L57" t="n">
         <v>1.8</v>
@@ -10826,7 +10826,7 @@
         <v>15</v>
       </c>
       <c r="AD57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE57" t="n">
         <v>19</v>
@@ -10838,7 +10838,7 @@
         <v>251</v>
       </c>
       <c r="AH57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI57" t="n">
         <v>7</v>
@@ -10889,7 +10889,7 @@
         <v>3.4</v>
       </c>
       <c r="AY57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AZ57" t="n">
         <v>15</v>
@@ -11303,22 +11303,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H60" t="n">
         <v>3.4</v>
       </c>
       <c r="I60" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K60" t="n">
         <v>2.1</v>
       </c>
       <c r="L60" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
@@ -11327,34 +11327,34 @@
         <v>9</v>
       </c>
       <c r="O60" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P60" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R60" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U60" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V60" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X60" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y60" t="n">
         <v>8.5</v>
@@ -11375,28 +11375,28 @@
         <v>6.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF60" t="n">
         <v>51</v>
       </c>
       <c r="AG60" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH60" t="n">
         <v>12</v>
       </c>
       <c r="AI60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ60" t="n">
         <v>15</v>
       </c>
       <c r="AK60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL60" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM60" t="n">
         <v>41</v>
@@ -11405,7 +11405,7 @@
         <v>3.75</v>
       </c>
       <c r="AO60" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP60" t="n">
         <v>21</v>
@@ -11420,7 +11420,7 @@
         <v>151</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU60" t="n">
         <v>8.5</v>
@@ -11435,7 +11435,7 @@
         <v>6</v>
       </c>
       <c r="AY60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ60" t="n">
         <v>34</v>
@@ -11485,13 +11485,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H61" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J61" t="n">
         <v>4</v>
@@ -11509,16 +11509,16 @@
         <v>9</v>
       </c>
       <c r="O61" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P61" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R61" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S61" t="n">
         <v>1.44</v>
@@ -11533,7 +11533,7 @@
         <v>1.83</v>
       </c>
       <c r="W61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X61" t="n">
         <v>17</v>
@@ -11551,7 +11551,7 @@
         <v>41</v>
       </c>
       <c r="AC61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD61" t="n">
         <v>6</v>
@@ -11569,13 +11569,13 @@
         <v>7</v>
       </c>
       <c r="AI61" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ61" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL61" t="n">
         <v>19</v>
@@ -11584,10 +11584,10 @@
         <v>29</v>
       </c>
       <c r="AN61" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO61" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP61" t="n">
         <v>29</v>
@@ -11596,7 +11596,7 @@
         <v>67</v>
       </c>
       <c r="AR61" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS61" t="n">
         <v>251</v>
@@ -11629,7 +11629,7 @@
         <v>67</v>
       </c>
       <c r="BC61" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD61" t="n">
         <v>51</v>
@@ -11697,10 +11697,10 @@
         <v>4</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S62" t="n">
         <v>1.33</v>
@@ -12395,19 +12395,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H66" t="n">
         <v>3.75</v>
       </c>
       <c r="I66" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J66" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L66" t="n">
         <v>2.25</v>
@@ -12443,16 +12443,16 @@
         <v>2.11</v>
       </c>
       <c r="W66" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X66" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y66" t="n">
         <v>10.75</v>
       </c>
       <c r="Z66" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA66" t="n">
         <v>24</v>
@@ -12467,16 +12467,16 @@
         <v>6.8</v>
       </c>
       <c r="AE66" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF66" t="n">
         <v>35</v>
       </c>
       <c r="AG66" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH66" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AI66" t="n">
         <v>8.25</v>
@@ -12485,13 +12485,13 @@
         <v>7.1</v>
       </c>
       <c r="AK66" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL66" t="n">
         <v>10.5</v>
       </c>
       <c r="AM66" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AN66" t="n">
         <v>5.9</v>
@@ -12500,7 +12500,7 @@
         <v>19.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ66" t="n">
         <v>90</v>
@@ -12512,7 +12512,7 @@
         <v>250</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU66" t="n">
         <v>6.8</v>
@@ -12527,7 +12527,7 @@
         <v>3.85</v>
       </c>
       <c r="AY66" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AZ66" t="n">
         <v>15</v>
@@ -13669,13 +13669,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
         <v>3.7</v>
       </c>
       <c r="I73" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J73" t="n">
         <v>2.5</v>
@@ -13699,10 +13699,10 @@
         <v>4</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R73" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S73" t="n">
         <v>1.33</v>
@@ -13711,13 +13711,13 @@
         <v>3.25</v>
       </c>
       <c r="U73" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V73" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X73" t="n">
         <v>10</v>
@@ -13756,16 +13756,16 @@
         <v>21</v>
       </c>
       <c r="AJ73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK73" t="n">
         <v>41</v>
       </c>
       <c r="AL73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN73" t="n">
         <v>4</v>
@@ -13783,7 +13783,7 @@
         <v>51</v>
       </c>
       <c r="AS73" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT73" t="n">
         <v>3.25</v>
@@ -13792,25 +13792,25 @@
         <v>7.5</v>
       </c>
       <c r="AV73" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW73" t="n">
         <v>81</v>
       </c>
       <c r="AX73" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY73" t="n">
         <v>19</v>
       </c>
       <c r="AZ73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA73" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB73" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC73" t="n">
         <v>151</v>
@@ -14579,7 +14579,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="H78" t="n">
         <v>3.75</v>
@@ -14591,10 +14591,10 @@
         <v>3.3</v>
       </c>
       <c r="K78" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L78" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -14606,7 +14606,7 @@
         <v>1.15</v>
       </c>
       <c r="P78" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="Q78" t="n">
         <v>1.47</v>
@@ -14618,7 +14618,7 @@
         <v>1.26</v>
       </c>
       <c r="T78" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="U78" t="n">
         <v>1.42</v>
@@ -14681,7 +14681,7 @@
         <v>5.4</v>
       </c>
       <c r="AO78" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP78" t="n">
         <v>17.5</v>
@@ -14696,16 +14696,16 @@
         <v>150</v>
       </c>
       <c r="AT78" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AU78" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV78" t="n">
         <v>37</v>
       </c>
       <c r="AW78" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AX78" t="n">
         <v>4.55</v>
@@ -14720,7 +14720,7 @@
         <v>35</v>
       </c>
       <c r="BB78" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BC78" t="n">
         <v>120</v>
@@ -14943,22 +14943,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.87</v>
+        <v>3.35</v>
       </c>
       <c r="H80" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I80" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="J80" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K80" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="L80" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="M80" t="n">
         <v>1.02</v>
@@ -14970,100 +14970,100 @@
         <v>1.12</v>
       </c>
       <c r="P80" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R80" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="S80" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T80" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="U80" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="V80" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="W80" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="X80" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB80" t="n">
         <v>22</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>19.5</v>
       </c>
       <c r="AC80" t="n">
         <v>10</v>
       </c>
       <c r="AD80" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE80" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF80" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG80" t="n">
         <v>120</v>
       </c>
       <c r="AH80" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI80" t="n">
         <v>14.5</v>
       </c>
-      <c r="AI80" t="n">
-        <v>16</v>
-      </c>
       <c r="AJ80" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK80" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL80" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AM80" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN80" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="AO80" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AP80" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AQ80" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AR80" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS80" t="n">
         <v>120</v>
       </c>
       <c r="AT80" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AU80" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AV80" t="n">
         <v>30</v>
@@ -15072,22 +15072,22 @@
         <v>350</v>
       </c>
       <c r="AX80" t="n">
-        <v>4.85</v>
+        <v>4.6</v>
       </c>
       <c r="AY80" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AZ80" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BA80" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="BB80" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BC80" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BD80" t="n">
         <v>51</v>
@@ -15125,13 +15125,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H81" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I81" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J81" t="n">
         <v>2.5</v>
@@ -15140,7 +15140,7 @@
         <v>2.2</v>
       </c>
       <c r="L81" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M81" t="n">
         <v>1.05</v>
@@ -15149,16 +15149,16 @@
         <v>11</v>
       </c>
       <c r="O81" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R81" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S81" t="n">
         <v>1.4</v>
@@ -15167,16 +15167,16 @@
         <v>2.75</v>
       </c>
       <c r="U81" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V81" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W81" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X81" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
@@ -15194,7 +15194,7 @@
         <v>10</v>
       </c>
       <c r="AD81" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE81" t="n">
         <v>15</v>
@@ -15206,7 +15206,7 @@
         <v>251</v>
       </c>
       <c r="AH81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI81" t="n">
         <v>21</v>
@@ -15224,7 +15224,7 @@
         <v>41</v>
       </c>
       <c r="AN81" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO81" t="n">
         <v>10</v>
@@ -15257,13 +15257,13 @@
         <v>6</v>
       </c>
       <c r="AY81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ81" t="n">
         <v>29</v>
       </c>
       <c r="BA81" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB81" t="n">
         <v>101</v>
@@ -15307,13 +15307,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H82" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I82" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J82" t="n">
         <v>1.67</v>
@@ -15322,13 +15322,13 @@
         <v>2.63</v>
       </c>
       <c r="L82" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O82" t="n">
         <v>1.18</v>
@@ -15349,37 +15349,37 @@
         <v>3.5</v>
       </c>
       <c r="U82" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V82" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W82" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X82" t="n">
         <v>6</v>
       </c>
       <c r="Y82" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB82" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE82" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF82" t="n">
         <v>81</v>
@@ -15397,37 +15397,37 @@
         <v>29</v>
       </c>
       <c r="AK82" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL82" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM82" t="n">
         <v>67</v>
       </c>
       <c r="AN82" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO82" t="n">
         <v>5.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR82" t="n">
         <v>41</v>
       </c>
       <c r="AS82" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT82" t="n">
         <v>3.5</v>
       </c>
       <c r="AU82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV82" t="n">
         <v>67</v>
@@ -15442,10 +15442,10 @@
         <v>51</v>
       </c>
       <c r="AZ82" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA82" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB82" t="n">
         <v>251</v>
@@ -18046,31 +18046,31 @@
         <v>4.33</v>
       </c>
       <c r="J97" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K97" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L97" t="n">
         <v>4.5</v>
       </c>
       <c r="M97" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O97" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P97" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R97" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S97" t="n">
         <v>1.4</v>
@@ -18079,16 +18079,16 @@
         <v>2.75</v>
       </c>
       <c r="U97" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V97" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W97" t="n">
         <v>7</v>
       </c>
       <c r="X97" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y97" t="n">
         <v>8.5</v>
@@ -18100,10 +18100,10 @@
         <v>15</v>
       </c>
       <c r="AB97" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC97" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD97" t="n">
         <v>6.5</v>
@@ -18115,7 +18115,7 @@
         <v>51</v>
       </c>
       <c r="AG97" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH97" t="n">
         <v>12</v>
@@ -18136,7 +18136,7 @@
         <v>41</v>
       </c>
       <c r="AN97" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO97" t="n">
         <v>10</v>
@@ -18169,19 +18169,19 @@
         <v>6</v>
       </c>
       <c r="AY97" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ97" t="n">
         <v>29</v>
       </c>
       <c r="BA97" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB97" t="n">
         <v>101</v>
       </c>
       <c r="BC97" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD97" t="n">
         <v>126</v>
@@ -18219,148 +18219,148 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.05</v>
+        <v>4.45</v>
       </c>
       <c r="H98" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I98" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="J98" t="n">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="K98" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L98" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="M98" t="n">
-        <v>8.699999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="N98" t="n">
-        <v>1.05</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O98" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P98" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R98" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S98" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T98" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="U98" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V98" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W98" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="X98" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y98" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z98" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AA98" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB98" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC98" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD98" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AE98" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF98" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG98" t="n">
         <v>600</v>
       </c>
       <c r="AH98" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI98" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AJ98" t="n">
         <v>8.25</v>
       </c>
       <c r="AK98" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL98" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM98" t="n">
         <v>26</v>
       </c>
       <c r="AN98" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AO98" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP98" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ98" t="n">
         <v>150</v>
       </c>
       <c r="AR98" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS98" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU98" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AV98" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW98" t="n">
         <v>51</v>
       </c>
       <c r="AX98" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="AY98" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AZ98" t="n">
         <v>18</v>
       </c>
       <c r="BA98" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BB98" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BC98" t="n">
         <v>250</v>
@@ -18401,28 +18401,28 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="H99" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="J99" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K99" t="n">
         <v>1.95</v>
       </c>
       <c r="L99" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M99" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N99" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O99" t="n">
         <v>1.5</v>
@@ -18431,10 +18431,10 @@
         <v>2.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R99" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S99" t="n">
         <v>1.57</v>
@@ -18449,25 +18449,25 @@
         <v>1.57</v>
       </c>
       <c r="W99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y99" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z99" t="n">
         <v>51</v>
       </c>
       <c r="AA99" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB99" t="n">
         <v>51</v>
       </c>
       <c r="AC99" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD99" t="n">
         <v>6.5</v>
@@ -18485,13 +18485,13 @@
         <v>5</v>
       </c>
       <c r="AI99" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ99" t="n">
         <v>9.5</v>
       </c>
       <c r="AK99" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL99" t="n">
         <v>19</v>
@@ -18500,7 +18500,7 @@
         <v>41</v>
       </c>
       <c r="AN99" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO99" t="n">
         <v>29</v>
@@ -18509,7 +18509,7 @@
         <v>41</v>
       </c>
       <c r="AQ99" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR99" t="n">
         <v>151</v>
@@ -18521,7 +18521,7 @@
         <v>2.25</v>
       </c>
       <c r="AU99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV99" t="n">
         <v>81</v>
@@ -18530,16 +18530,16 @@
         <v>51</v>
       </c>
       <c r="AX99" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ99" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA99" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB99" t="n">
         <v>67</v>
@@ -19675,28 +19675,28 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I106" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K106" t="n">
         <v>2.5</v>
       </c>
       <c r="L106" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M106" t="n">
         <v>1.02</v>
       </c>
       <c r="N106" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O106" t="n">
         <v>1.13</v>
@@ -19705,10 +19705,10 @@
         <v>6</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R106" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S106" t="n">
         <v>1.25</v>
@@ -19723,7 +19723,7 @@
         <v>2.63</v>
       </c>
       <c r="W106" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X106" t="n">
         <v>21</v>
@@ -19732,10 +19732,10 @@
         <v>12</v>
       </c>
       <c r="Z106" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA106" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB106" t="n">
         <v>23</v>
@@ -19756,7 +19756,7 @@
         <v>81</v>
       </c>
       <c r="AH106" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI106" t="n">
         <v>13</v>
@@ -19765,22 +19765,22 @@
         <v>9</v>
       </c>
       <c r="AK106" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL106" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM106" t="n">
         <v>19</v>
       </c>
       <c r="AN106" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO106" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP106" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ106" t="n">
         <v>51</v>
@@ -19807,13 +19807,13 @@
         <v>4.5</v>
       </c>
       <c r="AY106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ106" t="n">
         <v>15</v>
       </c>
       <c r="BA106" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB106" t="n">
         <v>41</v>
@@ -19822,7 +19822,7 @@
         <v>81</v>
       </c>
       <c r="BD106" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="107">
@@ -20042,19 +20042,19 @@
         <v>2.7</v>
       </c>
       <c r="H108" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
         <v>2.7</v>
       </c>
       <c r="J108" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K108" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L108" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M108" t="n">
         <v>1.1</v>
@@ -20063,28 +20063,28 @@
         <v>7</v>
       </c>
       <c r="O108" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P108" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R108" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S108" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T108" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U108" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V108" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W108" t="n">
         <v>7</v>
@@ -20105,19 +20105,19 @@
         <v>41</v>
       </c>
       <c r="AC108" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD108" t="n">
         <v>6</v>
       </c>
       <c r="AE108" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF108" t="n">
         <v>67</v>
       </c>
       <c r="AG108" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="AH108" t="n">
         <v>7</v>
@@ -20150,16 +20150,16 @@
         <v>51</v>
       </c>
       <c r="AR108" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS108" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU108" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV108" t="n">
         <v>67</v>
@@ -20180,10 +20180,10 @@
         <v>51</v>
       </c>
       <c r="BB108" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC108" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD108" t="n">
         <v>51</v>
@@ -20221,22 +20221,22 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H109" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I109" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J109" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K109" t="n">
         <v>2.2</v>
       </c>
       <c r="L109" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M109" t="n">
         <v>1.06</v>
@@ -20251,10 +20251,10 @@
         <v>3</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R109" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S109" t="n">
         <v>1.44</v>
@@ -20263,22 +20263,22 @@
         <v>2.63</v>
       </c>
       <c r="U109" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V109" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W109" t="n">
         <v>5.5</v>
       </c>
       <c r="X109" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y109" t="n">
         <v>9</v>
       </c>
       <c r="Z109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA109" t="n">
         <v>15</v>
@@ -20290,10 +20290,10 @@
         <v>8.5</v>
       </c>
       <c r="AD109" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF109" t="n">
         <v>81</v>
@@ -20305,13 +20305,13 @@
         <v>13</v>
       </c>
       <c r="AI109" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ109" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK109" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL109" t="n">
         <v>51</v>
@@ -20320,16 +20320,16 @@
         <v>51</v>
       </c>
       <c r="AN109" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO109" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP109" t="n">
         <v>23</v>
       </c>
       <c r="AQ109" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR109" t="n">
         <v>51</v>
@@ -20341,19 +20341,19 @@
         <v>2.63</v>
       </c>
       <c r="AU109" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV109" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW109" t="n">
         <v>51</v>
       </c>
       <c r="AX109" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY109" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ109" t="n">
         <v>41</v>
@@ -20585,13 +20585,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H111" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I111" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J111" t="n">
         <v>2.75</v>
@@ -20600,25 +20600,25 @@
         <v>2.2</v>
       </c>
       <c r="L111" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M111" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O111" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P111" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R111" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S111" t="n">
         <v>1.4</v>
@@ -20627,22 +20627,22 @@
         <v>2.75</v>
       </c>
       <c r="U111" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V111" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W111" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y111" t="n">
         <v>9</v>
       </c>
       <c r="Z111" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA111" t="n">
         <v>17</v>
@@ -20657,28 +20657,28 @@
         <v>6</v>
       </c>
       <c r="AE111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF111" t="n">
         <v>41</v>
       </c>
       <c r="AG111" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH111" t="n">
         <v>11</v>
       </c>
       <c r="AI111" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK111" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL111" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM111" t="n">
         <v>34</v>
@@ -20687,7 +20687,7 @@
         <v>4.33</v>
       </c>
       <c r="AO111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP111" t="n">
         <v>21</v>
@@ -20705,7 +20705,7 @@
         <v>2.75</v>
       </c>
       <c r="AU111" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV111" t="n">
         <v>51</v>
@@ -20717,7 +20717,7 @@
         <v>5.5</v>
       </c>
       <c r="AY111" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ111" t="n">
         <v>26</v>
@@ -20732,7 +20732,7 @@
         <v>151</v>
       </c>
       <c r="BD111" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112">
@@ -20782,13 +20782,13 @@
         <v>2.1</v>
       </c>
       <c r="L112" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M112" t="n">
         <v>1.06</v>
       </c>
       <c r="N112" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O112" t="n">
         <v>1.33</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="H113" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I113" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="J113" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K113" t="n">
         <v>2.25</v>
@@ -20973,16 +20973,16 @@
         <v>11</v>
       </c>
       <c r="O113" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P113" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R113" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S113" t="n">
         <v>1.4</v>
@@ -20991,13 +20991,13 @@
         <v>2.75</v>
       </c>
       <c r="U113" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V113" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W113" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X113" t="n">
         <v>29</v>
@@ -21009,7 +21009,7 @@
         <v>67</v>
       </c>
       <c r="AA113" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB113" t="n">
         <v>51</v>
@@ -21033,13 +21033,13 @@
         <v>6.5</v>
       </c>
       <c r="AI113" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ113" t="n">
         <v>8.5</v>
       </c>
       <c r="AK113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL113" t="n">
         <v>13</v>
@@ -21063,7 +21063,7 @@
         <v>151</v>
       </c>
       <c r="AS113" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT113" t="n">
         <v>2.75</v>
@@ -21075,13 +21075,13 @@
         <v>67</v>
       </c>
       <c r="AW113" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX113" t="n">
         <v>3.4</v>
       </c>
       <c r="AY113" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ113" t="n">
         <v>21</v>
@@ -21096,7 +21096,7 @@
         <v>151</v>
       </c>
       <c r="BD113" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
@@ -22587,13 +22587,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H122" t="n">
         <v>6.5</v>
       </c>
       <c r="I122" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J122" t="n">
         <v>1.62</v>
@@ -22641,7 +22641,7 @@
         <v>6.5</v>
       </c>
       <c r="Y122" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z122" t="n">
         <v>7.5</v>
@@ -22716,7 +22716,7 @@
         <v>126</v>
       </c>
       <c r="AX122" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY122" t="n">
         <v>51</v>
@@ -22769,22 +22769,22 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H123" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I123" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J123" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K123" t="n">
         <v>2.3</v>
       </c>
       <c r="L123" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M123" t="n">
         <v>1.04</v>
@@ -22811,16 +22811,16 @@
         <v>3</v>
       </c>
       <c r="U123" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V123" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W123" t="n">
         <v>7</v>
       </c>
       <c r="X123" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y123" t="n">
         <v>8.5</v>
@@ -22829,19 +22829,19 @@
         <v>11</v>
       </c>
       <c r="AA123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB123" t="n">
         <v>26</v>
       </c>
       <c r="AC123" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD123" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE123" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF123" t="n">
         <v>51</v>
@@ -22856,7 +22856,7 @@
         <v>29</v>
       </c>
       <c r="AJ123" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK123" t="n">
         <v>67</v>
@@ -22871,7 +22871,7 @@
         <v>3.5</v>
       </c>
       <c r="AO123" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP123" t="n">
         <v>19</v>
@@ -22898,16 +22898,16 @@
         <v>501</v>
       </c>
       <c r="AX123" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY123" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ123" t="n">
         <v>34</v>
       </c>
       <c r="BA123" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB123" t="n">
         <v>126</v>
@@ -22951,22 +22951,22 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I124" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K124" t="n">
         <v>2.2</v>
       </c>
-      <c r="K124" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L124" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M124" t="n">
         <v>1.06</v>
@@ -22975,16 +22975,16 @@
         <v>10</v>
       </c>
       <c r="O124" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P124" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R124" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S124" t="n">
         <v>1.44</v>
@@ -22993,22 +22993,22 @@
         <v>2.63</v>
       </c>
       <c r="U124" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V124" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W124" t="n">
         <v>5.5</v>
       </c>
       <c r="X124" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y124" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z124" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA124" t="n">
         <v>15</v>
@@ -23020,10 +23020,10 @@
         <v>9</v>
       </c>
       <c r="AD124" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE124" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF124" t="n">
         <v>81</v>
@@ -23032,16 +23032,16 @@
         <v>501</v>
       </c>
       <c r="AH124" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI124" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ124" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK124" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL124" t="n">
         <v>51</v>
@@ -23050,16 +23050,16 @@
         <v>51</v>
       </c>
       <c r="AN124" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO124" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP124" t="n">
         <v>21</v>
       </c>
       <c r="AQ124" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR124" t="n">
         <v>51</v>
@@ -23080,22 +23080,22 @@
         <v>126</v>
       </c>
       <c r="AX124" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY124" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ124" t="n">
         <v>41</v>
       </c>
       <c r="BA124" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB124" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC124" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD124" t="n">
         <v>126</v>
@@ -24043,22 +24043,22 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H130" t="n">
         <v>3.3</v>
       </c>
       <c r="I130" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J130" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K130" t="n">
         <v>2.2</v>
       </c>
       <c r="L130" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M130" t="n">
         <v>1.05</v>
@@ -24073,10 +24073,10 @@
         <v>3.5</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R130" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S130" t="n">
         <v>1.4</v>
@@ -24100,22 +24100,22 @@
         <v>11</v>
       </c>
       <c r="Z130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA130" t="n">
         <v>23</v>
       </c>
       <c r="AB130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC130" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD130" t="n">
         <v>6.5</v>
       </c>
       <c r="AE130" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF130" t="n">
         <v>41</v>
@@ -24124,10 +24124,10 @@
         <v>201</v>
       </c>
       <c r="AH130" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI130" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ130" t="n">
         <v>9.5</v>
@@ -24148,7 +24148,7 @@
         <v>17</v>
       </c>
       <c r="AP130" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ130" t="n">
         <v>51</v>
@@ -24163,7 +24163,7 @@
         <v>2.75</v>
       </c>
       <c r="AU130" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV130" t="n">
         <v>51</v>
@@ -24172,10 +24172,10 @@
         <v>51</v>
       </c>
       <c r="AX130" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ130" t="n">
         <v>21</v>
@@ -24407,22 +24407,22 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="H132" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I132" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J132" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K132" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L132" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M132" t="n">
         <v>1.04</v>
@@ -24437,10 +24437,10 @@
         <v>4</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R132" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S132" t="n">
         <v>1.33</v>
@@ -24458,16 +24458,16 @@
         <v>7.5</v>
       </c>
       <c r="X132" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y132" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z132" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB132" t="n">
         <v>26</v>
@@ -24476,10 +24476,10 @@
         <v>12</v>
       </c>
       <c r="AD132" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE132" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF132" t="n">
         <v>51</v>
@@ -24491,13 +24491,13 @@
         <v>17</v>
       </c>
       <c r="AI132" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ132" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK132" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL132" t="n">
         <v>41</v>
@@ -24506,16 +24506,16 @@
         <v>41</v>
       </c>
       <c r="AN132" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO132" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP132" t="n">
         <v>19</v>
       </c>
       <c r="AQ132" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR132" t="n">
         <v>41</v>
@@ -24527,7 +24527,7 @@
         <v>3.25</v>
       </c>
       <c r="AU132" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV132" t="n">
         <v>51</v>
@@ -24536,10 +24536,10 @@
         <v>81</v>
       </c>
       <c r="AX132" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY132" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ132" t="n">
         <v>34</v>
@@ -24548,10 +24548,10 @@
         <v>101</v>
       </c>
       <c r="BB132" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC132" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD132" t="n">
         <v>81</v>
@@ -24589,40 +24589,40 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
         <v>3.1</v>
       </c>
       <c r="I133" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J133" t="n">
         <v>3.1</v>
       </c>
       <c r="K133" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L133" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M133" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N133" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O133" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P133" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R133" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S133" t="n">
         <v>1.44</v>
@@ -24631,16 +24631,16 @@
         <v>2.63</v>
       </c>
       <c r="U133" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V133" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W133" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X133" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y133" t="n">
         <v>10</v>
@@ -24652,10 +24652,10 @@
         <v>21</v>
       </c>
       <c r="AB133" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC133" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD133" t="n">
         <v>6</v>
@@ -24670,7 +24670,7 @@
         <v>151</v>
       </c>
       <c r="AH133" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI133" t="n">
         <v>13</v>
@@ -24679,10 +24679,10 @@
         <v>11</v>
       </c>
       <c r="AK133" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL133" t="n">
         <v>26</v>
-      </c>
-      <c r="AL133" t="n">
-        <v>23</v>
       </c>
       <c r="AM133" t="n">
         <v>34</v>
@@ -24694,7 +24694,7 @@
         <v>15</v>
       </c>
       <c r="AP133" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ133" t="n">
         <v>41</v>
@@ -24709,7 +24709,7 @@
         <v>2.63</v>
       </c>
       <c r="AU133" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV133" t="n">
         <v>51</v>
@@ -24721,16 +24721,16 @@
         <v>4.75</v>
       </c>
       <c r="AY133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ133" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA133" t="n">
         <v>51</v>
       </c>
       <c r="BB133" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC133" t="n">
         <v>151</v>
@@ -25317,79 +25317,79 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="H137" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I137" t="n">
-        <v>2.47</v>
+        <v>2.1</v>
       </c>
       <c r="J137" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="K137" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="M137" t="n">
         <v>1.09</v>
       </c>
       <c r="N137" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O137" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P137" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="R137" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S137" t="n">
         <v>1.5</v>
       </c>
       <c r="T137" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="U137" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V137" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W137" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="X137" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y137" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="Z137" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA137" t="n">
         <v>35</v>
       </c>
-      <c r="AA137" t="n">
-        <v>28</v>
-      </c>
       <c r="AB137" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC137" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AD137" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AE137" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF137" t="n">
         <v>90</v>
@@ -25398,46 +25398,46 @@
         <v>900</v>
       </c>
       <c r="AH137" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AI137" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="AJ137" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AK137" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AL137" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AM137" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN137" t="n">
-        <v>4.65</v>
+        <v>5.2</v>
       </c>
       <c r="AO137" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AP137" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AQ137" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AR137" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS137" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AU137" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV137" t="n">
         <v>80</v>
@@ -25446,22 +25446,22 @@
         <v>51</v>
       </c>
       <c r="AX137" t="n">
-        <v>4.25</v>
+        <v>3.85</v>
       </c>
       <c r="AY137" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AZ137" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BA137" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="BB137" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BC137" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD137" t="n">
         <v>51</v>
@@ -26227,22 +26227,22 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="H142" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="I142" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="J142" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K142" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L142" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="M142" t="n">
         <v>1.04</v>
@@ -26251,7 +26251,7 @@
         <v>8.25</v>
       </c>
       <c r="O142" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P142" t="n">
         <v>3.8</v>
@@ -26263,10 +26263,10 @@
         <v>2.07</v>
       </c>
       <c r="S142" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T142" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="U142" t="n">
         <v>1.78</v>
@@ -26278,19 +26278,19 @@
         <v>16</v>
       </c>
       <c r="X142" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y142" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z142" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA142" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB142" t="n">
         <v>50</v>
-      </c>
-      <c r="AB142" t="n">
-        <v>45</v>
       </c>
       <c r="AC142" t="n">
         <v>8.25</v>
@@ -26299,16 +26299,16 @@
         <v>8</v>
       </c>
       <c r="AE142" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF142" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG142" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH142" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI142" t="n">
         <v>7.6</v>
@@ -26317,55 +26317,55 @@
         <v>8</v>
       </c>
       <c r="AK142" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AL142" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AM142" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN142" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AO142" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AP142" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ142" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR142" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AS142" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT142" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU142" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV142" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW142" t="n">
         <v>51</v>
       </c>
       <c r="AX142" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AY142" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AZ142" t="n">
         <v>16</v>
       </c>
       <c r="BA142" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB142" t="n">
         <v>50</v>
@@ -31523,10 +31523,10 @@
         <v>4.5</v>
       </c>
       <c r="M171" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N171" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O171" t="n">
         <v>1.53</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H172" t="n">
         <v>3.5</v>
@@ -31702,7 +31702,7 @@
         <v>2.1</v>
       </c>
       <c r="L172" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M172" t="n">
         <v>1.07</v>
@@ -31711,10 +31711,10 @@
         <v>9</v>
       </c>
       <c r="O172" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P172" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q172" t="n">
         <v>2.1</v>
@@ -31729,10 +31729,10 @@
         <v>2.63</v>
       </c>
       <c r="U172" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V172" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W172" t="n">
         <v>6</v>
@@ -31756,7 +31756,7 @@
         <v>8</v>
       </c>
       <c r="AD172" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE172" t="n">
         <v>19</v>
@@ -31768,16 +31768,16 @@
         <v>351</v>
       </c>
       <c r="AH172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI172" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ172" t="n">
         <v>19</v>
       </c>
       <c r="AK172" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL172" t="n">
         <v>41</v>
@@ -31789,7 +31789,7 @@
         <v>3.5</v>
       </c>
       <c r="AO172" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP172" t="n">
         <v>21</v>
@@ -31816,7 +31816,7 @@
         <v>51</v>
       </c>
       <c r="AX172" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY172" t="n">
         <v>29</v>
@@ -31825,7 +31825,7 @@
         <v>41</v>
       </c>
       <c r="BA172" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB172" t="n">
         <v>151</v>
@@ -32060,13 +32060,13 @@
         <v>3.75</v>
       </c>
       <c r="J174" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="K174" t="n">
         <v>2.15</v>
       </c>
       <c r="L174" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="M174" t="n">
         <v>1.06</v>
@@ -32084,22 +32084,22 @@
         <v>1.85</v>
       </c>
       <c r="R174" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S174" t="n">
         <v>1.39</v>
       </c>
       <c r="T174" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U174" t="n">
         <v>1.75</v>
       </c>
       <c r="V174" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W174" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X174" t="n">
         <v>9</v>
@@ -32114,7 +32114,7 @@
         <v>14.5</v>
       </c>
       <c r="AB174" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC174" t="n">
         <v>7.5</v>
@@ -32168,7 +32168,7 @@
         <v>250</v>
       </c>
       <c r="AT174" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU174" t="n">
         <v>7.3</v>
@@ -32183,19 +32183,19 @@
         <v>5.7</v>
       </c>
       <c r="AY174" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ174" t="n">
         <v>28</v>
       </c>
       <c r="BA174" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB174" t="n">
         <v>150</v>
       </c>
       <c r="BC174" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD174" t="n">
         <v>51</v>
@@ -32415,127 +32415,127 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="H176" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I176" t="n">
-        <v>4.45</v>
+        <v>3.95</v>
       </c>
       <c r="J176" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K176" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L176" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="M176" t="n">
         <v>1.03</v>
       </c>
       <c r="N176" t="n">
-        <v>6.95</v>
+        <v>6.85</v>
       </c>
       <c r="O176" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P176" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R176" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S176" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T176" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="U176" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V176" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W176" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="X176" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="Y176" t="n">
         <v>8.5</v>
       </c>
       <c r="Z176" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA176" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AB176" t="n">
         <v>32</v>
       </c>
       <c r="AC176" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD176" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AE176" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF176" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG176" t="n">
         <v>900</v>
       </c>
       <c r="AH176" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI176" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ176" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK176" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR176" t="n">
         <v>80</v>
-      </c>
-      <c r="AL176" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM176" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN176" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO176" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP176" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ176" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR176" t="n">
-        <v>70</v>
       </c>
       <c r="AS176" t="n">
         <v>300</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AU176" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV176" t="n">
         <v>75</v>
@@ -32544,19 +32544,19 @@
         <v>51</v>
       </c>
       <c r="AX176" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AY176" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ176" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA176" t="n">
         <v>150</v>
       </c>
       <c r="BB176" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC176" t="n">
         <v>450</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-29.xlsx
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K14" t="n">
         <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2973,10 +2973,10 @@
         <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
         <v>6.5</v>
@@ -2988,13 +2988,13 @@
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
         <v>12</v>
@@ -3003,7 +3003,7 @@
         <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
         <v>81</v>
@@ -3012,22 +3012,22 @@
         <v>501</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL14" t="n">
         <v>67</v>
       </c>
       <c r="AM14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
         <v>3.2</v>
@@ -3057,10 +3057,10 @@
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY14" t="n">
         <v>41</v>
@@ -3069,16 +3069,16 @@
         <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
         <v>401</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -4587,22 +4587,22 @@
         <v>3.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4617,19 +4617,19 @@
         <v>2.05</v>
       </c>
       <c r="W23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
         <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
@@ -4653,13 +4653,13 @@
         <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
         <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4701,13 +4701,13 @@
         <v>4.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ23" t="n">
         <v>23</v>
       </c>
       <c r="BA23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
         <v>67</v>
@@ -6935,28 +6935,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I36" t="n">
         <v>3</v>
       </c>
-      <c r="I36" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L36" t="n">
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O36" t="n">
         <v>1.5</v>
@@ -6965,22 +6965,22 @@
         <v>2.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R36" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T36" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W36" t="n">
         <v>6.5</v>
@@ -6989,10 +6989,10 @@
         <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA36" t="n">
         <v>23</v>
@@ -7049,10 +7049,10 @@
         <v>81</v>
       </c>
       <c r="AS36" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU36" t="n">
         <v>9</v>
@@ -8027,13 +8027,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I42" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J42" t="n">
         <v>4</v>
@@ -8069,16 +8069,16 @@
         <v>3.4</v>
       </c>
       <c r="U42" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W42" t="n">
         <v>13</v>
       </c>
       <c r="X42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y42" t="n">
         <v>12</v>
@@ -8096,7 +8096,7 @@
         <v>15</v>
       </c>
       <c r="AD42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE42" t="n">
         <v>13</v>
@@ -8111,7 +8111,7 @@
         <v>9.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ42" t="n">
         <v>8.5</v>
@@ -8120,7 +8120,7 @@
         <v>17</v>
       </c>
       <c r="AL42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM42" t="n">
         <v>21</v>
@@ -8165,7 +8165,7 @@
         <v>17</v>
       </c>
       <c r="BA42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB42" t="n">
         <v>41</v>
@@ -8209,22 +8209,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
         <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K43" t="n">
         <v>2.25</v>
       </c>
       <c r="L43" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8314,7 +8314,7 @@
         <v>12</v>
       </c>
       <c r="AP43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ43" t="n">
         <v>41</v>
@@ -8338,7 +8338,7 @@
         <v>126</v>
       </c>
       <c r="AX43" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY43" t="n">
         <v>17</v>
@@ -9131,7 +9131,7 @@
         <v>4.33</v>
       </c>
       <c r="K48" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L48" t="n">
         <v>3.1</v>
@@ -9149,10 +9149,10 @@
         <v>2.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R48" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S48" t="n">
         <v>1.57</v>
@@ -9161,10 +9161,10 @@
         <v>2.25</v>
       </c>
       <c r="U48" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V48" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W48" t="n">
         <v>8</v>
@@ -9227,10 +9227,10 @@
         <v>34</v>
       </c>
       <c r="AQ48" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR48" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS48" t="n">
         <v>351</v>
@@ -9242,7 +9242,7 @@
         <v>9</v>
       </c>
       <c r="AV48" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW48" t="n">
         <v>126</v>
@@ -9257,7 +9257,7 @@
         <v>29</v>
       </c>
       <c r="BA48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB48" t="n">
         <v>81</v>
@@ -9301,22 +9301,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H49" t="n">
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J49" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K49" t="n">
         <v>1.95</v>
       </c>
       <c r="L49" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
         <v>1.1</v>
@@ -9352,16 +9352,16 @@
         <v>5.5</v>
       </c>
       <c r="X49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y49" t="n">
         <v>9.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB49" t="n">
         <v>41</v>
@@ -9373,25 +9373,25 @@
         <v>6</v>
       </c>
       <c r="AE49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF49" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG49" t="n">
         <v>201</v>
       </c>
       <c r="AH49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL49" t="n">
         <v>41</v>
@@ -9403,7 +9403,7 @@
         <v>3.75</v>
       </c>
       <c r="AO49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP49" t="n">
         <v>26</v>
@@ -9412,7 +9412,7 @@
         <v>41</v>
       </c>
       <c r="AR49" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS49" t="n">
         <v>251</v>
@@ -9430,19 +9430,19 @@
         <v>126</v>
       </c>
       <c r="AX49" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ49" t="n">
         <v>41</v>
       </c>
       <c r="BA49" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB49" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC49" t="n">
         <v>351</v>
@@ -9483,28 +9483,28 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J50" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K50" t="n">
         <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M50" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O50" t="n">
         <v>1.5</v>
@@ -9519,10 +9519,10 @@
         <v>1.5</v>
       </c>
       <c r="S50" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T50" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U50" t="n">
         <v>2.5</v>
@@ -9540,7 +9540,7 @@
         <v>9.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA50" t="n">
         <v>17</v>
@@ -9573,7 +9573,7 @@
         <v>21</v>
       </c>
       <c r="AK50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="n">
         <v>51</v>
@@ -9582,28 +9582,28 @@
         <v>67</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP50" t="n">
         <v>26</v>
       </c>
       <c r="AQ50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR50" t="n">
         <v>67</v>
       </c>
       <c r="AS50" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV50" t="n">
         <v>81</v>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H62" t="n">
         <v>4.75</v>
@@ -11676,43 +11676,43 @@
         <v>10</v>
       </c>
       <c r="J62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N62" t="n">
+        <v>11</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q62" t="n">
         <v>1.8</v>
       </c>
-      <c r="K62" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L62" t="n">
-        <v>9</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N62" t="n">
-        <v>13</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P62" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R62" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S62" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T62" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U62" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V62" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W62" t="n">
         <v>6.5</v>
@@ -11721,10 +11721,10 @@
         <v>6</v>
       </c>
       <c r="Y62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z62" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA62" t="n">
         <v>12</v>
@@ -11736,7 +11736,7 @@
         <v>11</v>
       </c>
       <c r="AD62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE62" t="n">
         <v>23</v>
@@ -11748,16 +11748,16 @@
         <v>201</v>
       </c>
       <c r="AH62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI62" t="n">
         <v>41</v>
       </c>
       <c r="AJ62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK62" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL62" t="n">
         <v>67</v>
@@ -11766,10 +11766,10 @@
         <v>67</v>
       </c>
       <c r="AN62" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP62" t="n">
         <v>19</v>
@@ -11784,7 +11784,7 @@
         <v>151</v>
       </c>
       <c r="AT62" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU62" t="n">
         <v>10</v>
@@ -11796,7 +11796,7 @@
         <v>51</v>
       </c>
       <c r="AX62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY62" t="n">
         <v>41</v>
@@ -11805,10 +11805,10 @@
         <v>41</v>
       </c>
       <c r="BA62" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB62" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC62" t="n">
         <v>501</v>
@@ -14946,19 +14946,19 @@
         <v>3.35</v>
       </c>
       <c r="H80" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I80" t="n">
         <v>1.93</v>
       </c>
       <c r="J80" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K80" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L80" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M80" t="n">
         <v>1.02</v>
@@ -14973,7 +14973,7 @@
         <v>5.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R80" t="n">
         <v>2.8</v>
@@ -14988,13 +14988,13 @@
         <v>1.37</v>
       </c>
       <c r="V80" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="W80" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="X80" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y80" t="n">
         <v>12</v>
@@ -15006,7 +15006,7 @@
         <v>24</v>
       </c>
       <c r="AB80" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC80" t="n">
         <v>10</v>
@@ -15015,49 +15015,49 @@
         <v>8.75</v>
       </c>
       <c r="AE80" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG80" t="n">
         <v>120</v>
       </c>
       <c r="AH80" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI80" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ80" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK80" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL80" t="n">
         <v>13</v>
       </c>
       <c r="AM80" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN80" t="n">
         <v>6.1</v>
       </c>
       <c r="AO80" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ80" t="n">
         <v>65</v>
       </c>
       <c r="AR80" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AS80" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AT80" t="n">
         <v>3.8</v>
@@ -15072,22 +15072,22 @@
         <v>350</v>
       </c>
       <c r="AX80" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AY80" t="n">
         <v>9.5</v>
       </c>
       <c r="AZ80" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BA80" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB80" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BC80" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BD80" t="n">
         <v>51</v>
@@ -18037,28 +18037,28 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H97" t="n">
         <v>3.4</v>
       </c>
       <c r="I97" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J97" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K97" t="n">
         <v>2.2</v>
       </c>
       <c r="L97" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M97" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O97" t="n">
         <v>1.29</v>
@@ -18085,7 +18085,7 @@
         <v>1.95</v>
       </c>
       <c r="W97" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X97" t="n">
         <v>9</v>
@@ -18094,7 +18094,7 @@
         <v>8.5</v>
       </c>
       <c r="Z97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA97" t="n">
         <v>15</v>
@@ -18124,7 +18124,7 @@
         <v>21</v>
       </c>
       <c r="AJ97" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK97" t="n">
         <v>41</v>
@@ -18166,7 +18166,7 @@
         <v>126</v>
       </c>
       <c r="AX97" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY97" t="n">
         <v>21</v>
@@ -18219,94 +18219,94 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="H98" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I98" t="n">
         <v>1.7</v>
       </c>
       <c r="J98" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="K98" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L98" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="M98" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N98" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="O98" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P98" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q98" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V98" t="n">
         <v>1.85</v>
       </c>
-      <c r="R98" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S98" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T98" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U98" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V98" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W98" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="X98" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y98" t="n">
         <v>14.5</v>
       </c>
       <c r="Z98" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA98" t="n">
         <v>45</v>
       </c>
       <c r="AB98" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC98" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD98" t="n">
         <v>7.1</v>
       </c>
       <c r="AE98" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF98" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG98" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH98" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI98" t="n">
         <v>7.9</v>
       </c>
       <c r="AJ98" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK98" t="n">
         <v>13</v>
@@ -18318,31 +18318,31 @@
         <v>26</v>
       </c>
       <c r="AN98" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AO98" t="n">
         <v>25</v>
       </c>
       <c r="AP98" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ98" t="n">
         <v>150</v>
       </c>
       <c r="AR98" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS98" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="AU98" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AV98" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AW98" t="n">
         <v>51</v>
@@ -18354,10 +18354,10 @@
         <v>8.25</v>
       </c>
       <c r="AZ98" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BA98" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB98" t="n">
         <v>60</v>
@@ -20039,7 +20039,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H108" t="n">
         <v>3</v>
@@ -20054,7 +20054,7 @@
         <v>1.95</v>
       </c>
       <c r="L108" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M108" t="n">
         <v>1.1</v>
@@ -20063,16 +20063,16 @@
         <v>7</v>
       </c>
       <c r="O108" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P108" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R108" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S108" t="n">
         <v>1.53</v>
@@ -20096,7 +20096,7 @@
         <v>11</v>
       </c>
       <c r="Z108" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA108" t="n">
         <v>26</v>
@@ -20168,7 +20168,7 @@
         <v>51</v>
       </c>
       <c r="AX108" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY108" t="n">
         <v>17</v>
@@ -20770,16 +20770,16 @@
         <v>1.8</v>
       </c>
       <c r="H112" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I112" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J112" t="n">
         <v>2.4</v>
       </c>
       <c r="K112" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L112" t="n">
         <v>5</v>
@@ -20788,7 +20788,7 @@
         <v>1.06</v>
       </c>
       <c r="N112" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O112" t="n">
         <v>1.33</v>
@@ -20824,7 +20824,7 @@
         <v>8.5</v>
       </c>
       <c r="Z112" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA112" t="n">
         <v>15</v>
@@ -20833,10 +20833,10 @@
         <v>29</v>
       </c>
       <c r="AC112" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD112" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE112" t="n">
         <v>17</v>
@@ -20848,19 +20848,19 @@
         <v>351</v>
       </c>
       <c r="AH112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI112" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ112" t="n">
         <v>15</v>
       </c>
       <c r="AK112" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL112" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM112" t="n">
         <v>41</v>
@@ -20893,13 +20893,13 @@
         <v>51</v>
       </c>
       <c r="AW112" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX112" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ112" t="n">
         <v>34</v>
@@ -20967,10 +20967,10 @@
         <v>2.1</v>
       </c>
       <c r="M113" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O113" t="n">
         <v>1.29</v>
@@ -20991,10 +20991,10 @@
         <v>2.75</v>
       </c>
       <c r="U113" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V113" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W113" t="n">
         <v>15</v>
@@ -21063,7 +21063,7 @@
         <v>151</v>
       </c>
       <c r="AS113" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT113" t="n">
         <v>2.75</v>
@@ -21075,7 +21075,7 @@
         <v>67</v>
       </c>
       <c r="AW113" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX113" t="n">
         <v>3.4</v>
@@ -21096,7 +21096,7 @@
         <v>151</v>
       </c>
       <c r="BD113" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
@@ -31687,13 +31687,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H172" t="n">
         <v>3.5</v>
       </c>
       <c r="I172" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J172" t="n">
         <v>2.3</v>
@@ -31702,7 +31702,7 @@
         <v>2.1</v>
       </c>
       <c r="L172" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M172" t="n">
         <v>1.07</v>
@@ -31711,16 +31711,16 @@
         <v>9</v>
       </c>
       <c r="O172" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P172" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q172" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R172" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S172" t="n">
         <v>1.44</v>
@@ -31729,10 +31729,10 @@
         <v>2.63</v>
       </c>
       <c r="U172" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V172" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W172" t="n">
         <v>6</v>
@@ -31750,10 +31750,10 @@
         <v>15</v>
       </c>
       <c r="AB172" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC172" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD172" t="n">
         <v>7</v>
@@ -31768,16 +31768,16 @@
         <v>351</v>
       </c>
       <c r="AH172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI172" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ172" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK172" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL172" t="n">
         <v>41</v>
@@ -31789,7 +31789,7 @@
         <v>3.5</v>
       </c>
       <c r="AO172" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP172" t="n">
         <v>21</v>
@@ -31801,7 +31801,7 @@
         <v>51</v>
       </c>
       <c r="AS172" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT172" t="n">
         <v>2.63</v>
@@ -31816,7 +31816,7 @@
         <v>51</v>
       </c>
       <c r="AX172" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY172" t="n">
         <v>29</v>
@@ -31825,13 +31825,13 @@
         <v>41</v>
       </c>
       <c r="BA172" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB172" t="n">
         <v>151</v>
       </c>
       <c r="BC172" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD172" t="n">
         <v>51</v>
@@ -31869,22 +31869,22 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H173" t="n">
         <v>4.75</v>
       </c>
       <c r="I173" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J173" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K173" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L173" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M173" t="n">
         <v>1.04</v>
@@ -31899,28 +31899,28 @@
         <v>3.75</v>
       </c>
       <c r="Q173" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R173" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S173" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T173" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U173" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V173" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W173" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X173" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y173" t="n">
         <v>21</v>
@@ -31956,10 +31956,10 @@
         <v>6.5</v>
       </c>
       <c r="AJ173" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK173" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL173" t="n">
         <v>12</v>
@@ -31968,7 +31968,7 @@
         <v>29</v>
       </c>
       <c r="AN173" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO173" t="n">
         <v>41</v>
@@ -31983,31 +31983,31 @@
         <v>151</v>
       </c>
       <c r="AS173" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT173" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU173" t="n">
         <v>9</v>
       </c>
       <c r="AV173" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW173" t="n">
         <v>51</v>
       </c>
       <c r="AX173" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AY173" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ173" t="n">
         <v>19</v>
       </c>
       <c r="BA173" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB173" t="n">
         <v>41</v>
@@ -32057,13 +32057,13 @@
         <v>3.5</v>
       </c>
       <c r="I174" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J174" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="K174" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L174" t="n">
         <v>4.2</v>
@@ -32078,10 +32078,10 @@
         <v>1.28</v>
       </c>
       <c r="P174" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R174" t="n">
         <v>1.88</v>
@@ -32090,7 +32090,7 @@
         <v>1.39</v>
       </c>
       <c r="T174" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="U174" t="n">
         <v>1.75</v>
@@ -32102,7 +32102,7 @@
         <v>7.4</v>
       </c>
       <c r="X174" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Y174" t="n">
         <v>8.25</v>
@@ -32123,7 +32123,7 @@
         <v>6.9</v>
       </c>
       <c r="AE174" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF174" t="n">
         <v>65</v>
@@ -32168,7 +32168,7 @@
         <v>250</v>
       </c>
       <c r="AT174" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AU174" t="n">
         <v>7.3</v>
@@ -32233,22 +32233,22 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="H175" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I175" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J175" t="n">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="K175" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L175" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M175" t="n">
         <v>1.08</v>
@@ -32275,85 +32275,85 @@
         <v>2.65</v>
       </c>
       <c r="U175" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V175" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W175" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="X175" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="Y175" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z175" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA175" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB175" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC175" t="n">
         <v>6.6</v>
       </c>
       <c r="AD175" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE175" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF175" t="n">
         <v>80</v>
       </c>
       <c r="AG175" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH175" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI175" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AJ175" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AK175" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AL175" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AM175" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ175" t="n">
         <v>45</v>
       </c>
-      <c r="AN175" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO175" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP175" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ175" t="n">
-        <v>37</v>
-      </c>
       <c r="AR175" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS175" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT175" t="n">
         <v>2.65</v>
       </c>
       <c r="AU175" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV175" t="n">
         <v>70</v>
@@ -32362,22 +32362,22 @@
         <v>51</v>
       </c>
       <c r="AX175" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AY175" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ175" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA175" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB175" t="n">
         <v>120</v>
       </c>
-      <c r="BB175" t="n">
-        <v>150</v>
-      </c>
       <c r="BC175" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD175" t="n">
         <v>51</v>
@@ -32415,151 +32415,151 @@
         </is>
       </c>
       <c r="G176" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H176" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I176" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K176" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L176" t="n">
+        <v>5</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N176" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P176" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R176" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U176" t="n">
         <v>1.98</v>
       </c>
-      <c r="H176" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J176" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K176" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="L176" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="M176" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N176" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="O176" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P176" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q176" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R176" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S176" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T176" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="U176" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V176" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="W176" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="X176" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="Y176" t="n">
         <v>8.5</v>
       </c>
       <c r="Z176" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE176" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA176" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB176" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC176" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD176" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE176" t="n">
-        <v>16</v>
-      </c>
       <c r="AF176" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG176" t="n">
         <v>900</v>
       </c>
       <c r="AH176" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI176" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AJ176" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AK176" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AL176" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM176" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN176" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="AO176" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP176" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ176" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AR176" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AS176" t="n">
         <v>300</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AU176" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AV176" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW176" t="n">
         <v>51</v>
       </c>
       <c r="AX176" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="AY176" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AZ176" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BA176" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB176" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC176" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD176" t="n">
         <v>51</v>
@@ -32606,13 +32606,13 @@
         <v>2.25</v>
       </c>
       <c r="J177" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="K177" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="L177" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M177" t="n">
         <v>1.05</v>
@@ -32627,16 +32627,16 @@
         <v>2.32</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R177" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S177" t="n">
         <v>1.57</v>
       </c>
       <c r="T177" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U177" t="n">
         <v>1.98</v>
@@ -32645,7 +32645,7 @@
         <v>1.65</v>
       </c>
       <c r="W177" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X177" t="n">
         <v>16.5</v>
@@ -32660,7 +32660,7 @@
         <v>40</v>
       </c>
       <c r="AB177" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC177" t="n">
         <v>6.3</v>
@@ -32678,10 +32678,10 @@
         <v>900</v>
       </c>
       <c r="AH177" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AI177" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ177" t="n">
         <v>9.25</v>
@@ -32693,7 +32693,7 @@
         <v>21</v>
       </c>
       <c r="AM177" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN177" t="n">
         <v>5.1</v>
@@ -32705,22 +32705,22 @@
         <v>35</v>
       </c>
       <c r="AQ177" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR177" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS177" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AU177" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV177" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW177" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-29.xlsx
@@ -6571,55 +6571,55 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V34" t="n">
         <v>1.67</v>
       </c>
-      <c r="K34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L34" t="n">
-        <v>9</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N34" t="n">
-        <v>17</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X34" t="n">
         <v>6.5</v>
@@ -6628,7 +6628,7 @@
         <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA34" t="n">
         <v>11</v>
@@ -6637,34 +6637,34 @@
         <v>29</v>
       </c>
       <c r="AC34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF34" t="n">
         <v>67</v>
       </c>
       <c r="AG34" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>29</v>
       </c>
-      <c r="AI34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>34</v>
-      </c>
       <c r="AK34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM34" t="n">
         <v>67</v>
@@ -6673,7 +6673,7 @@
         <v>3.25</v>
       </c>
       <c r="AO34" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP34" t="n">
         <v>17</v>
@@ -6688,13 +6688,13 @@
         <v>126</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW34" t="n">
         <v>51</v>
@@ -8209,22 +8209,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K43" t="n">
         <v>2.25</v>
       </c>
       <c r="L43" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8239,16 +8239,16 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R43" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U43" t="n">
         <v>1.62</v>
@@ -8257,13 +8257,13 @@
         <v>2.2</v>
       </c>
       <c r="W43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X43" t="n">
         <v>12</v>
       </c>
       <c r="Y43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z43" t="n">
         <v>21</v>
@@ -8308,13 +8308,13 @@
         <v>29</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO43" t="n">
         <v>12</v>
       </c>
       <c r="AP43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ43" t="n">
         <v>41</v>
@@ -8326,7 +8326,7 @@
         <v>126</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU43" t="n">
         <v>7.5</v>
@@ -8338,7 +8338,7 @@
         <v>126</v>
       </c>
       <c r="AX43" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY43" t="n">
         <v>17</v>
@@ -9301,13 +9301,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J49" t="n">
         <v>2.75</v>
@@ -9316,7 +9316,7 @@
         <v>1.95</v>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M49" t="n">
         <v>1.1</v>
@@ -9331,10 +9331,10 @@
         <v>2.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R49" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S49" t="n">
         <v>1.57</v>
@@ -9358,10 +9358,10 @@
         <v>9.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB49" t="n">
         <v>41</v>
@@ -9373,7 +9373,7 @@
         <v>6</v>
       </c>
       <c r="AE49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF49" t="n">
         <v>81</v>
@@ -9382,16 +9382,16 @@
         <v>201</v>
       </c>
       <c r="AH49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL49" t="n">
         <v>41</v>
@@ -9403,7 +9403,7 @@
         <v>3.75</v>
       </c>
       <c r="AO49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP49" t="n">
         <v>26</v>
@@ -9430,19 +9430,19 @@
         <v>126</v>
       </c>
       <c r="AX49" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ49" t="n">
         <v>41</v>
       </c>
       <c r="BA49" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB49" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC49" t="n">
         <v>351</v>
@@ -9483,28 +9483,28 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H50" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I50" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O50" t="n">
         <v>1.5</v>
@@ -9525,10 +9525,10 @@
         <v>2.38</v>
       </c>
       <c r="U50" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V50" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W50" t="n">
         <v>4.75</v>
@@ -9540,7 +9540,7 @@
         <v>9.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA50" t="n">
         <v>17</v>
@@ -9552,7 +9552,7 @@
         <v>6.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE50" t="n">
         <v>26</v>
@@ -9564,19 +9564,19 @@
         <v>201</v>
       </c>
       <c r="AH50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK50" t="n">
         <v>81</v>
       </c>
       <c r="AL50" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM50" t="n">
         <v>67</v>
@@ -9597,7 +9597,7 @@
         <v>67</v>
       </c>
       <c r="AS50" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT50" t="n">
         <v>2.38</v>
@@ -9606,22 +9606,22 @@
         <v>11</v>
       </c>
       <c r="AV50" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW50" t="n">
         <v>126</v>
       </c>
       <c r="AX50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY50" t="n">
         <v>41</v>
       </c>
       <c r="AZ50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA50" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB50" t="n">
         <v>251</v>
@@ -11667,13 +11667,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H62" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J62" t="n">
         <v>1.83</v>
@@ -11682,7 +11682,7 @@
         <v>2.4</v>
       </c>
       <c r="L62" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M62" t="n">
         <v>1.05</v>
@@ -11697,10 +11697,10 @@
         <v>3.75</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S62" t="n">
         <v>1.36</v>
@@ -11724,7 +11724,7 @@
         <v>9</v>
       </c>
       <c r="Z62" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA62" t="n">
         <v>12</v>
@@ -11733,22 +11733,22 @@
         <v>34</v>
       </c>
       <c r="AC62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF62" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG62" t="n">
         <v>201</v>
       </c>
       <c r="AH62" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI62" t="n">
         <v>41</v>
@@ -11772,10 +11772,10 @@
         <v>6.5</v>
       </c>
       <c r="AP62" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ62" t="n">
         <v>19</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>17</v>
       </c>
       <c r="AR62" t="n">
         <v>41</v>
@@ -11796,7 +11796,7 @@
         <v>51</v>
       </c>
       <c r="AX62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY62" t="n">
         <v>41</v>
@@ -18037,22 +18037,22 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I97" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="J97" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K97" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L97" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M97" t="n">
         <v>1.06</v>
@@ -18061,16 +18061,16 @@
         <v>10</v>
       </c>
       <c r="O97" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P97" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q97" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R97" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S97" t="n">
         <v>1.4</v>
@@ -18079,49 +18079,49 @@
         <v>2.75</v>
       </c>
       <c r="U97" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V97" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W97" t="n">
         <v>7.5</v>
       </c>
       <c r="X97" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y97" t="n">
         <v>9</v>
       </c>
-      <c r="Y97" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z97" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA97" t="n">
         <v>17</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>15</v>
       </c>
       <c r="AB97" t="n">
         <v>26</v>
       </c>
       <c r="AC97" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD97" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE97" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF97" t="n">
         <v>51</v>
       </c>
       <c r="AG97" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH97" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI97" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ97" t="n">
         <v>13</v>
@@ -18130,22 +18130,22 @@
         <v>41</v>
       </c>
       <c r="AL97" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM97" t="n">
         <v>34</v>
-      </c>
-      <c r="AM97" t="n">
-        <v>41</v>
       </c>
       <c r="AN97" t="n">
         <v>4</v>
       </c>
       <c r="AO97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP97" t="n">
         <v>21</v>
       </c>
       <c r="AQ97" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR97" t="n">
         <v>51</v>
@@ -18169,7 +18169,7 @@
         <v>5.5</v>
       </c>
       <c r="AY97" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ97" t="n">
         <v>29</v>
@@ -18178,7 +18178,7 @@
         <v>67</v>
       </c>
       <c r="BB97" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC97" t="n">
         <v>201</v>
@@ -20239,10 +20239,10 @@
         <v>7</v>
       </c>
       <c r="M109" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N109" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O109" t="n">
         <v>1.36</v>
@@ -20278,7 +20278,7 @@
         <v>9</v>
       </c>
       <c r="Z109" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA109" t="n">
         <v>15</v>
@@ -31893,10 +31893,10 @@
         <v>13</v>
       </c>
       <c r="O173" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P173" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q173" t="n">
         <v>1.75</v>
@@ -32233,79 +32233,79 @@
         </is>
       </c>
       <c r="G175" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H175" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K175" t="n">
         <v>2.12</v>
       </c>
-      <c r="H175" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J175" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K175" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L175" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="M175" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N175" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O175" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P175" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="Q175" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R175" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S175" t="n">
         <v>1.42</v>
       </c>
       <c r="T175" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U175" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V175" t="n">
         <v>1.83</v>
       </c>
       <c r="W175" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X175" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC175" t="n">
         <v>6.8</v>
       </c>
-      <c r="X175" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y175" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z175" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA175" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB175" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC175" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AD175" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AE175" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF175" t="n">
         <v>80</v>
@@ -32314,46 +32314,46 @@
         <v>700</v>
       </c>
       <c r="AH175" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI175" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ175" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AK175" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM175" t="n">
         <v>45</v>
       </c>
-      <c r="AL175" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM175" t="n">
-        <v>40</v>
-      </c>
       <c r="AN175" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AO175" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP175" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ175" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AR175" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS175" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT175" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU175" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV175" t="n">
         <v>70</v>
@@ -32362,22 +32362,22 @@
         <v>51</v>
       </c>
       <c r="AX175" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AY175" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ175" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA175" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BB175" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC175" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD175" t="n">
         <v>51</v>
@@ -32597,28 +32597,28 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H177" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="I177" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="J177" t="n">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="K177" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="L177" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M177" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N177" t="n">
-        <v>6</v>
+        <v>7.02</v>
       </c>
       <c r="O177" t="n">
         <v>1.47</v>
@@ -32633,10 +32633,10 @@
         <v>1.45</v>
       </c>
       <c r="S177" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T177" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="U177" t="n">
         <v>1.98</v>
@@ -32645,28 +32645,28 @@
         <v>1.65</v>
       </c>
       <c r="W177" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="X177" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y177" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z177" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB177" t="n">
         <v>50</v>
       </c>
-      <c r="AA177" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB177" t="n">
-        <v>60</v>
-      </c>
       <c r="AC177" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AD177" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE177" t="n">
         <v>17</v>
@@ -32678,70 +32678,70 @@
         <v>900</v>
       </c>
       <c r="AH177" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AI177" t="n">
         <v>10</v>
       </c>
       <c r="AJ177" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK177" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL177" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AM177" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN177" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="AO177" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AP177" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ177" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AR177" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AS177" t="n">
         <v>500</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="AU177" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV177" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW177" t="n">
         <v>51</v>
       </c>
       <c r="AX177" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AY177" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AZ177" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA177" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BB177" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC177" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD177" t="n">
         <v>51</v>
